--- a/biology/Botanique/Forêt_de_Montauban-de-Bretagne/Forêt_de_Montauban-de-Bretagne.xlsx
+++ b/biology/Botanique/Forêt_de_Montauban-de-Bretagne/Forêt_de_Montauban-de-Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montauban-de-Bretagne</t>
+          <t>Forêt_de_Montauban-de-Bretagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La forêt de Montauban-de-Bretagne est une forêt domaniale située en Ille-et-Vilaine au nord de la commune de Montauban-de-Bretagne. Elle s'étend sur une superficie d'environ 580 ha[1].
+La forêt de Montauban-de-Bretagne est une forêt domaniale située en Ille-et-Vilaine au nord de la commune de Montauban-de-Bretagne. Elle s'étend sur une superficie d'environ 580 ha.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montauban-de-Bretagne</t>
+          <t>Forêt_de_Montauban-de-Bretagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montauban-de-Bretagne</t>
+          <t>Forêt_de_Montauban-de-Bretagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,9 +552,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt est devenue propriété de l’État en 1923[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt est devenue propriété de l’État en 1923.
 </t>
         </is>
       </c>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montauban-de-Bretagne</t>
+          <t>Forêt_de_Montauban-de-Bretagne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est gérée par l’Office national des forêts (ONF).
 </t>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montauban-de-Bretagne</t>
+          <t>Forêt_de_Montauban-de-Bretagne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,6 +619,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -608,7 +628,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montauban-de-Bretagne</t>
+          <t>Forêt_de_Montauban-de-Bretagne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -626,9 +646,11 @@
           <t>Sites remarquables</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château de Montauban, édifié au XIIIe siècle, de situe au sud de la forêt[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château de Montauban, édifié au XIIIe siècle, de situe au sud de la forêt.
 </t>
         </is>
       </c>
